--- a/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,63; 72,67</t>
+          <t>40,74; 71,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,76; 82,03</t>
+          <t>65,89; 81,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,1; 75,95</t>
+          <t>59,87; 75,42</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,52; 82,16</t>
+          <t>71,82; 81,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,12; 83,13</t>
+          <t>75,81; 82,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,08; 81,24</t>
+          <t>75,44; 81,36</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,49; 77,29</t>
+          <t>68,73; 77,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,11; 81,13</t>
+          <t>74,43; 81,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,57; 78,34</t>
+          <t>72,52; 78,31</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,63; 79,6</t>
+          <t>69,02; 79,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,72; 90,19</t>
+          <t>68,79; 89,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,52; 86,58</t>
+          <t>71,51; 85,35</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,59; 83,28</t>
+          <t>75,64; 82,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,65; 85,09</t>
+          <t>79,39; 85,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,71; 83,16</t>
+          <t>78,81; 83,25</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>73,09; 77,98</t>
+          <t>73,24; 77,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,26; 83,1</t>
+          <t>77,21; 82,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>75,98; 79,8</t>
+          <t>76,1; 80,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,74; 71,17</t>
+          <t>41,63; 72,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>65,89; 81,47</t>
+          <t>66,76; 82,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,87; 75,42</t>
+          <t>59,1; 75,95</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,82; 81,73</t>
+          <t>72,52; 82,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,81; 82,86</t>
+          <t>75,12; 83,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,44; 81,36</t>
+          <t>75,08; 81,24</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,73; 77,5</t>
+          <t>68,49; 77,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,43; 81,0</t>
+          <t>74,11; 81,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,52; 78,31</t>
+          <t>72,57; 78,34</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,02; 79,91</t>
+          <t>68,63; 79,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,79; 89,83</t>
+          <t>68,72; 90,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,51; 85,35</t>
+          <t>71,52; 86,58</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,64; 82,63</t>
+          <t>75,59; 83,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,39; 85,21</t>
+          <t>79,65; 85,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,81; 83,25</t>
+          <t>78,71; 83,16</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>73,24; 77,84</t>
+          <t>73,09; 77,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,21; 82,87</t>
+          <t>77,26; 83,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,1; 80,17</t>
+          <t>75,98; 79,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>57,97%</t>
+          <t>74,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>78,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,81%</t>
+          <t>76,51%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>41,63; 72,67</t>
+          <t>68,69; 79,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,76; 82,03</t>
+          <t>75,05; 81,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,1; 75,95</t>
+          <t>73,06; 79,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>73,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>77,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>75,37%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,52; 82,16</t>
+          <t>68,05; 77,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,12; 83,13</t>
+          <t>73,75; 80,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,08; 81,24</t>
+          <t>72,15; 78,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,39%</t>
+          <t>74,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77,78%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>77,07%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,49; 77,29</t>
+          <t>67,77; 79,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,11; 81,13</t>
+          <t>61,07; 93,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,57; 78,34</t>
+          <t>67,49; 89,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>74,63%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,15%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>80,99%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,63; 79,6</t>
+          <t>74,9; 83,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,72; 90,19</t>
+          <t>79,38; 84,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,52; 86,58</t>
+          <t>78,28; 83,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>75,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>77,6%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,59; 83,28</t>
+          <t>72,98; 77,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,65; 85,09</t>
+          <t>75,31; 84,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,71; 83,16</t>
+          <t>74,99; 81,25</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>75,7%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>79,46%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>77,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>73,09; 77,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>77,26; 83,1</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>75,98; 79,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,69; 79,33</t>
+          <t>68,51; 78,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,05; 81,6</t>
+          <t>74,99; 81,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,06; 79,19</t>
+          <t>73,04; 79,29</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,05; 77,53</t>
+          <t>67,93; 77,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,75; 80,82</t>
+          <t>73,34; 80,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,15; 78,23</t>
+          <t>72,33; 78,15</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,77; 79,21</t>
+          <t>67,94; 79,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,07; 93,68</t>
+          <t>61,35; 92,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,49; 89,74</t>
+          <t>66,73; 89,26</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,9; 83,19</t>
+          <t>74,83; 82,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,38; 84,95</t>
+          <t>79,46; 85,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,28; 83,09</t>
+          <t>78,38; 83,03</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,98; 77,99</t>
+          <t>73,01; 77,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>75,31; 84,99</t>
+          <t>75,22; 85,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>74,99; 81,25</t>
+          <t>75,22; 81,68</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no está dispuesta a pagar para reducir el ruido (impuesto durante 5 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>259609</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>278025</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>537635</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>238387; 274837</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>266049; 289868</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>513312; 557205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>367158</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>370976</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>738135</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>339945; 389436</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>351231; 385386</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>708397; 765394</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>246001</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>429138</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>675139</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>225188; 263784</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>334055; 505347</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>584534; 781890</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>377301</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>436440</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>813742</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>355575; 393527</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>420785; 451618</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>787554; 834280</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2148</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3492</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1250069</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1514580</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2764650</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1208325; 1287758</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1434953; 1631081</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2679933; 2910240</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>